--- a/api/data/TICKET.xlsx
+++ b/api/data/TICKET.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimhyojeong/Desktop/spm-master/api/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F1A9D4-4FBF-F147-8360-62D921FEC988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="43">
   <si>
     <t>index</t>
   </si>
@@ -91,9 +97,6 @@
     <t>T00013</t>
   </si>
   <si>
-    <t>P00014</t>
-  </si>
-  <si>
     <t>gywjdskql5915@gmail.com</t>
   </si>
   <si>
@@ -143,20 +146,24 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>T00014</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -164,8 +171,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -209,20 +223,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -260,7 +282,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -294,6 +316,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -328,9 +351,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -503,12 +527,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
@@ -556,34 +582,34 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J2" s="2">
         <v>45047</v>
       </c>
       <c r="K2" s="2">
-        <v>45073.67216614584</v>
+        <v>45073.672166145843</v>
       </c>
       <c r="L2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -594,25 +620,25 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J3" s="2">
         <v>45047</v>
@@ -621,7 +647,7 @@
         <v>45047</v>
       </c>
       <c r="L3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -632,25 +658,25 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J4" s="2">
         <v>45047</v>
@@ -659,7 +685,7 @@
         <v>45047</v>
       </c>
       <c r="L4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -670,25 +696,25 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J5" s="2">
         <v>45047</v>
@@ -697,7 +723,7 @@
         <v>45047</v>
       </c>
       <c r="L5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -708,25 +734,25 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J6" s="2">
         <v>45047</v>
@@ -735,7 +761,7 @@
         <v>45047</v>
       </c>
       <c r="L6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -746,25 +772,25 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J7" s="2">
         <v>45047</v>
@@ -773,7 +799,7 @@
         <v>45047</v>
       </c>
       <c r="L7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -784,25 +810,25 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J8" s="2">
         <v>45047</v>
@@ -811,7 +837,7 @@
         <v>45047</v>
       </c>
       <c r="L8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -822,25 +848,25 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J9" s="2">
         <v>45047</v>
@@ -849,7 +875,7 @@
         <v>45047</v>
       </c>
       <c r="L9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -860,25 +886,25 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J10" s="2">
         <v>45047</v>
@@ -887,7 +913,7 @@
         <v>45047</v>
       </c>
       <c r="L10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -898,25 +924,25 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J11" s="2">
         <v>45047</v>
@@ -925,7 +951,7 @@
         <v>45047</v>
       </c>
       <c r="L11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -936,25 +962,25 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J12" s="2">
         <v>45047</v>
@@ -963,7 +989,7 @@
         <v>45047</v>
       </c>
       <c r="L12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -974,25 +1000,25 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J13" s="2">
         <v>45047</v>
@@ -1001,7 +1027,7 @@
         <v>45047</v>
       </c>
       <c r="L13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1012,25 +1038,25 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J14" s="2">
         <v>45047</v>
@@ -1039,7 +1065,7 @@
         <v>45047</v>
       </c>
       <c r="L14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1047,34 +1073,41 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
         <v>33</v>
       </c>
-      <c r="F15" t="s">
-        <v>34</v>
-      </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="H15" t="s">
+        <v>38</v>
       </c>
       <c r="I15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J15" s="2">
-        <v>45073.70015974918</v>
+        <v>45073.700159749184</v>
+      </c>
+      <c r="K15" s="2">
+        <v>45047</v>
       </c>
       <c r="L15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/api/data/TICKET.xlsx
+++ b/api/data/TICKET.xlsx
@@ -1,26 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimhyojeong/Desktop/spm-master/api/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F1A9D4-4FBF-F147-8360-62D921FEC988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="48">
+  <si>
+    <t>level_0</t>
+  </si>
   <si>
     <t>index</t>
   </si>
@@ -97,6 +94,12 @@
     <t>T00013</t>
   </si>
   <si>
+    <t>T00014</t>
+  </si>
+  <si>
+    <t>T00015</t>
+  </si>
+  <si>
     <t>gywjdskql5915@gmail.com</t>
   </si>
   <si>
@@ -121,9 +124,15 @@
     <t>제목입니다</t>
   </si>
   <si>
+    <t>회원가입시 이메일이 잘못되었습니다.</t>
+  </si>
+  <si>
     <t>안녕하세요</t>
   </si>
   <si>
+    <t>이메일 정정도 가능할까요?</t>
+  </si>
+  <si>
     <t>환불/결제취소 관련</t>
   </si>
   <si>
@@ -133,6 +142,9 @@
     <t>회원가입/로그인</t>
   </si>
   <si>
+    <t>예약/결제</t>
+  </si>
+  <si>
     <t>gkgkghgh</t>
   </si>
   <si>
@@ -146,24 +158,20 @@
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>T00014</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -171,15 +179,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -223,28 +224,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -282,7 +275,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -316,7 +309,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -351,10 +343,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -527,16 +518,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,130 +562,142 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="2">
-        <v>45047</v>
+        <v>43</v>
+      </c>
+      <c r="J2" t="s">
+        <v>45</v>
       </c>
       <c r="K2" s="2">
-        <v>45073.672166145843</v>
-      </c>
-      <c r="L2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>45047</v>
+      </c>
+      <c r="L2" s="2">
+        <v>45073.67216614584</v>
+      </c>
+      <c r="M2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="2">
-        <v>45047</v>
+        <v>44</v>
+      </c>
+      <c r="J3" t="s">
+        <v>45</v>
       </c>
       <c r="K3" s="2">
         <v>45047</v>
       </c>
-      <c r="L3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="L3" s="2">
+        <v>45047</v>
+      </c>
+      <c r="M3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
+      <c r="B4">
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
         <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
         <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="2">
-        <v>45047</v>
+        <v>44</v>
+      </c>
+      <c r="J4" t="s">
+        <v>45</v>
       </c>
       <c r="K4" s="2">
         <v>45047</v>
       </c>
-      <c r="L4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="L4" s="2">
+        <v>45047</v>
+      </c>
+      <c r="M4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
+      <c r="B5">
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>28</v>
@@ -705,112 +706,121 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
         <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="2">
-        <v>45047</v>
+        <v>44</v>
+      </c>
+      <c r="J5" t="s">
+        <v>45</v>
       </c>
       <c r="K5" s="2">
         <v>45047</v>
       </c>
-      <c r="L5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="L5" s="2">
+        <v>45047</v>
+      </c>
+      <c r="M5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
+      <c r="B6">
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
         <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
         <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="2">
-        <v>45047</v>
+        <v>44</v>
+      </c>
+      <c r="J6" t="s">
+        <v>45</v>
       </c>
       <c r="K6" s="2">
         <v>45047</v>
       </c>
-      <c r="L6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="L6" s="2">
+        <v>45047</v>
+      </c>
+      <c r="M6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
+      <c r="B7">
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
         <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
         <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="2">
-        <v>45047</v>
+        <v>44</v>
+      </c>
+      <c r="J7" t="s">
+        <v>45</v>
       </c>
       <c r="K7" s="2">
         <v>45047</v>
       </c>
-      <c r="L7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="L7" s="2">
+        <v>45047</v>
+      </c>
+      <c r="M7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>18</v>
+      <c r="B8">
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
@@ -819,295 +829,350 @@
         <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="2">
-        <v>45047</v>
+        <v>44</v>
+      </c>
+      <c r="J8" t="s">
+        <v>45</v>
       </c>
       <c r="K8" s="2">
         <v>45047</v>
       </c>
-      <c r="L8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="L8" s="2">
+        <v>45047</v>
+      </c>
+      <c r="M8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>19</v>
+      <c r="B9">
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
         <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
         <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="2">
-        <v>45047</v>
+        <v>44</v>
+      </c>
+      <c r="J9" t="s">
+        <v>45</v>
       </c>
       <c r="K9" s="2">
         <v>45047</v>
       </c>
-      <c r="L9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="L9" s="2">
+        <v>45047</v>
+      </c>
+      <c r="M9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>20</v>
+      <c r="B10">
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
         <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="2">
-        <v>45047</v>
+        <v>44</v>
+      </c>
+      <c r="J10" t="s">
+        <v>45</v>
       </c>
       <c r="K10" s="2">
         <v>45047</v>
       </c>
-      <c r="L10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="L10" s="2">
+        <v>45047</v>
+      </c>
+      <c r="M10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>21</v>
+      <c r="B11">
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
         <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="2">
-        <v>45047</v>
+        <v>44</v>
+      </c>
+      <c r="J11" t="s">
+        <v>45</v>
       </c>
       <c r="K11" s="2">
         <v>45047</v>
       </c>
-      <c r="L11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="L11" s="2">
+        <v>45047</v>
+      </c>
+      <c r="M11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>22</v>
+      <c r="B12">
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
         <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
         <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="2">
-        <v>45047</v>
+        <v>44</v>
+      </c>
+      <c r="J12" t="s">
+        <v>45</v>
       </c>
       <c r="K12" s="2">
         <v>45047</v>
       </c>
-      <c r="L12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="L12" s="2">
+        <v>45047</v>
+      </c>
+      <c r="M12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>23</v>
+      <c r="B13">
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="2">
-        <v>45047</v>
+        <v>44</v>
+      </c>
+      <c r="J13" t="s">
+        <v>45</v>
       </c>
       <c r="K13" s="2">
         <v>45047</v>
       </c>
-      <c r="L13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="L13" s="2">
+        <v>45047</v>
+      </c>
+      <c r="M13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>24</v>
+      <c r="B14">
+        <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="2">
-        <v>45047</v>
+        <v>44</v>
+      </c>
+      <c r="J14" t="s">
+        <v>45</v>
       </c>
       <c r="K14" s="2">
         <v>45047</v>
       </c>
-      <c r="L14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="L14" s="2">
+        <v>45047</v>
+      </c>
+      <c r="M14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>42</v>
+      <c r="B15">
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="2">
+        <v>45073.70015974537</v>
+      </c>
+      <c r="L15" s="2">
+        <v>45047</v>
+      </c>
+      <c r="M15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" t="s">
         <v>36</v>
       </c>
-      <c r="H15" t="s">
+      <c r="G16" t="s">
         <v>38</v>
       </c>
-      <c r="I15" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" s="2">
-        <v>45073.700159749184</v>
-      </c>
-      <c r="K15" s="2">
-        <v>45047</v>
-      </c>
-      <c r="L15" t="s">
-        <v>41</v>
+      <c r="H16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="2">
+        <v>45109.67183104467</v>
+      </c>
+      <c r="M16" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>